--- a/data/covid-19-pandas-output-us.xlsx
+++ b/data/covid-19-pandas-output-us.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,6 +1321,162 @@
         <v>13729</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B36">
+        <v>16557</v>
+      </c>
+      <c r="C36">
+        <v>451</v>
+      </c>
+      <c r="D36">
+        <v>1037</v>
+      </c>
+      <c r="E36">
+        <v>725</v>
+      </c>
+      <c r="F36">
+        <v>82</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>14576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B37">
+        <v>16612</v>
+      </c>
+      <c r="C37">
+        <v>476</v>
+      </c>
+      <c r="D37">
+        <v>1140</v>
+      </c>
+      <c r="E37">
+        <v>748</v>
+      </c>
+      <c r="F37">
+        <v>85</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>15464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B38">
+        <v>17897</v>
+      </c>
+      <c r="C38">
+        <v>490</v>
+      </c>
+      <c r="D38">
+        <v>1175</v>
+      </c>
+      <c r="E38">
+        <v>774</v>
+      </c>
+      <c r="F38">
+        <v>93</v>
+      </c>
+      <c r="G38">
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <v>16060</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B39">
+        <v>18563</v>
+      </c>
+      <c r="C39">
+        <v>507</v>
+      </c>
+      <c r="D39">
+        <v>1223</v>
+      </c>
+      <c r="E39">
+        <v>822</v>
+      </c>
+      <c r="F39">
+        <v>102</v>
+      </c>
+      <c r="G39">
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <v>16509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B40">
+        <v>19101</v>
+      </c>
+      <c r="C40">
+        <v>533</v>
+      </c>
+      <c r="D40">
+        <v>1280</v>
+      </c>
+      <c r="E40">
+        <v>867</v>
+      </c>
+      <c r="F40">
+        <v>109</v>
+      </c>
+      <c r="G40">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>17337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B41">
+        <v>19413</v>
+      </c>
+      <c r="C41">
+        <v>556</v>
+      </c>
+      <c r="D41">
+        <v>1419</v>
+      </c>
+      <c r="E41">
+        <v>893</v>
+      </c>
+      <c r="F41">
+        <v>112</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>18100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1328,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,6 +2400,162 @@
         <v>10165.08756731677</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B36">
+        <v>35036.72433608084</v>
+      </c>
+      <c r="C36">
+        <v>777.696666640341</v>
+      </c>
+      <c r="D36">
+        <v>1312.252160552951</v>
+      </c>
+      <c r="E36">
+        <v>1687.794202899496</v>
+      </c>
+      <c r="F36">
+        <v>1407.331993736343</v>
+      </c>
+      <c r="G36">
+        <v>387.7155181326793</v>
+      </c>
+      <c r="H36">
+        <v>10792.21475571486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B37">
+        <v>35153.11135296098</v>
+      </c>
+      <c r="C37">
+        <v>820.8062379618677</v>
+      </c>
+      <c r="D37">
+        <v>1442.591574764092</v>
+      </c>
+      <c r="E37">
+        <v>1741.338018991479</v>
+      </c>
+      <c r="F37">
+        <v>1458.819749604746</v>
+      </c>
+      <c r="G37">
+        <v>387.7155181326793</v>
+      </c>
+      <c r="H37">
+        <v>11449.69875016291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B38">
+        <v>37872.33529279693</v>
+      </c>
+      <c r="C38">
+        <v>844.9475979019227</v>
+      </c>
+      <c r="D38">
+        <v>1486.881666971762</v>
+      </c>
+      <c r="E38">
+        <v>1801.865811095461</v>
+      </c>
+      <c r="F38">
+        <v>1596.120431920486</v>
+      </c>
+      <c r="G38">
+        <v>465.2586217592152</v>
+      </c>
+      <c r="H38">
+        <v>11890.98305274291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B39">
+        <v>39281.67626083642</v>
+      </c>
+      <c r="C39">
+        <v>874.2621064005608</v>
+      </c>
+      <c r="D39">
+        <v>1547.622364856566</v>
+      </c>
+      <c r="E39">
+        <v>1913.609427287428</v>
+      </c>
+      <c r="F39">
+        <v>1750.583699525695</v>
+      </c>
+      <c r="G39">
+        <v>465.2586217592152</v>
+      </c>
+      <c r="H39">
+        <v>12223.42709948522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B40">
+        <v>40420.15289868214</v>
+      </c>
+      <c r="C40">
+        <v>919.0960605749485</v>
+      </c>
+      <c r="D40">
+        <v>1619.751943594771</v>
+      </c>
+      <c r="E40">
+        <v>2018.369067467397</v>
+      </c>
+      <c r="F40">
+        <v>1870.721796551968</v>
+      </c>
+      <c r="G40">
+        <v>465.2586217592152</v>
+      </c>
+      <c r="H40">
+        <v>12836.48649971381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B41">
+        <v>41080.38470352947</v>
+      </c>
+      <c r="C41">
+        <v>958.7568661907532</v>
+      </c>
+      <c r="D41">
+        <v>1795.646881219515</v>
+      </c>
+      <c r="E41">
+        <v>2078.896859571379</v>
+      </c>
+      <c r="F41">
+        <v>1922.209552420371</v>
+      </c>
+      <c r="G41">
+        <v>465.2586217592152</v>
+      </c>
+      <c r="H41">
+        <v>13401.41925620465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2251,7 +2563,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3146,6 +3458,162 @@
         <v>861</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B36">
+        <v>1725</v>
+      </c>
+      <c r="C36">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>81</v>
+      </c>
+      <c r="E36">
+        <v>57</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B37">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>103</v>
+      </c>
+      <c r="E37">
+        <v>23</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B38">
+        <v>1285</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B39">
+        <v>666</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>48</v>
+      </c>
+      <c r="E39">
+        <v>48</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B40">
+        <v>538</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>57</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B41">
+        <v>312</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>139</v>
+      </c>
+      <c r="E41">
+        <v>26</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>763</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3153,7 +3621,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4048,6 +4516,162 @@
         <v>637.4929270492929</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B36">
+        <v>3650.320074877058</v>
+      </c>
+      <c r="C36">
+        <v>63.80216555585947</v>
+      </c>
+      <c r="D36">
+        <v>102.4999276806066</v>
+      </c>
+      <c r="E36">
+        <v>132.6955442279603</v>
+      </c>
+      <c r="F36">
+        <v>34.32517057893519</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>627.1271883980849</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B37">
+        <v>116.3870168801381</v>
+      </c>
+      <c r="C37">
+        <v>43.10957132152667</v>
+      </c>
+      <c r="D37">
+        <v>130.3394142111417</v>
+      </c>
+      <c r="E37">
+        <v>53.54381609198399</v>
+      </c>
+      <c r="F37">
+        <v>51.48775586840279</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>657.4839944480512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B38">
+        <v>2719.223939835953</v>
+      </c>
+      <c r="C38">
+        <v>24.14135994005493</v>
+      </c>
+      <c r="D38">
+        <v>44.29009220766951</v>
+      </c>
+      <c r="E38">
+        <v>60.52779210398191</v>
+      </c>
+      <c r="F38">
+        <v>137.3006823157408</v>
+      </c>
+      <c r="G38">
+        <v>77.54310362653587</v>
+      </c>
+      <c r="H38">
+        <v>441.2843025799983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B39">
+        <v>1409.34096803949</v>
+      </c>
+      <c r="C39">
+        <v>29.31450849863813</v>
+      </c>
+      <c r="D39">
+        <v>60.74069788480389</v>
+      </c>
+      <c r="E39">
+        <v>111.7436161919666</v>
+      </c>
+      <c r="F39">
+        <v>154.4632676052084</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>332.4440467423142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B40">
+        <v>1138.476637845714</v>
+      </c>
+      <c r="C40">
+        <v>44.83395417438773</v>
+      </c>
+      <c r="D40">
+        <v>72.12957873820463</v>
+      </c>
+      <c r="E40">
+        <v>104.7596401799687</v>
+      </c>
+      <c r="F40">
+        <v>120.1380970262732</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>613.0594002285883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B41">
+        <v>660.2318048473288</v>
+      </c>
+      <c r="C41">
+        <v>39.66080561580453</v>
+      </c>
+      <c r="D41">
+        <v>175.8949376247446</v>
+      </c>
+      <c r="E41">
+        <v>60.52779210398191</v>
+      </c>
+      <c r="F41">
+        <v>51.48775586840279</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>564.9327564908368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4055,7 +4679,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4866,6 +5490,162 @@
         <v>570.707953739367</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B36">
+        <v>3052.302420871113</v>
+      </c>
+      <c r="C36">
+        <v>57.93926385613183</v>
+      </c>
+      <c r="D36">
+        <v>100.4752377511131</v>
+      </c>
+      <c r="E36">
+        <v>122.9179778111633</v>
+      </c>
+      <c r="F36">
+        <v>102.9755117368056</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>586.9969716198368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B37">
+        <v>2773.820031390637</v>
+      </c>
+      <c r="C37">
+        <v>58.97389356784847</v>
+      </c>
+      <c r="D37">
+        <v>107.8147387455269</v>
+      </c>
+      <c r="E37">
+        <v>115.9340017991654</v>
+      </c>
+      <c r="F37">
+        <v>96.11047762101855</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>612.3189903249306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B38">
+        <v>2985.856014870452</v>
+      </c>
+      <c r="C38">
+        <v>51.04173244468757</v>
+      </c>
+      <c r="D38">
+        <v>103.2591864041666</v>
+      </c>
+      <c r="E38">
+        <v>116.3996001999653</v>
+      </c>
+      <c r="F38">
+        <v>89.24544350523152</v>
+      </c>
+      <c r="G38">
+        <v>15.50862072530717</v>
+      </c>
+      <c r="H38">
+        <v>585.3680698317899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B39">
+        <v>2939.724433634324</v>
+      </c>
+      <c r="C39">
+        <v>45.52370731553215</v>
+      </c>
+      <c r="D39">
+        <v>91.87030555076592</v>
+      </c>
+      <c r="E39">
+        <v>105.2252385807686</v>
+      </c>
+      <c r="F39">
+        <v>106.4080287946991</v>
+      </c>
+      <c r="G39">
+        <v>15.50862072530717</v>
+      </c>
+      <c r="H39">
+        <v>539.1664918435484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B40">
+        <v>1806.749727495671</v>
+      </c>
+      <c r="C40">
+        <v>41.04031189809338</v>
+      </c>
+      <c r="D40">
+        <v>81.99994214448529</v>
+      </c>
+      <c r="E40">
+        <v>92.65408175917236</v>
+      </c>
+      <c r="F40">
+        <v>99.54299467891208</v>
+      </c>
+      <c r="G40">
+        <v>15.50862072530717</v>
+      </c>
+      <c r="H40">
+        <v>534.2797864794076</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B41">
+        <v>1208.732073489725</v>
+      </c>
+      <c r="C41">
+        <v>36.2120399100824</v>
+      </c>
+      <c r="D41">
+        <v>96.6789441333129</v>
+      </c>
+      <c r="E41">
+        <v>78.22053133437666</v>
+      </c>
+      <c r="F41">
+        <v>102.9755117368056</v>
+      </c>
+      <c r="G41">
+        <v>15.50862072530717</v>
+      </c>
+      <c r="H41">
+        <v>521.840900097958</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-pandas-output-us.xlsx
+++ b/data/covid-19-pandas-output-us.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,6 +1477,32 @@
         <v>18100</v>
       </c>
     </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B42">
+        <v>20973</v>
+      </c>
+      <c r="C42">
+        <v>604</v>
+      </c>
+      <c r="D42">
+        <v>1531</v>
+      </c>
+      <c r="E42">
+        <v>987</v>
+      </c>
+      <c r="F42">
+        <v>113</v>
+      </c>
+      <c r="G42">
+        <v>38</v>
+      </c>
+      <c r="H42">
+        <v>18738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1484,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2556,6 +2582,32 @@
         <v>13401.41925620465</v>
       </c>
     </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B42">
+        <v>44381.54372776611</v>
+      </c>
+      <c r="C42">
+        <v>1041.527243128084</v>
+      </c>
+      <c r="D42">
+        <v>1937.375176284058</v>
+      </c>
+      <c r="E42">
+        <v>2297.728107947313</v>
+      </c>
+      <c r="F42">
+        <v>1939.372137709838</v>
+      </c>
+      <c r="G42">
+        <v>982.212645936121</v>
+      </c>
+      <c r="H42">
+        <v>13873.80077473827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2563,7 +2615,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3614,6 +3666,32 @@
         <v>763</v>
       </c>
     </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B42">
+        <v>1560</v>
+      </c>
+      <c r="C42">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>112</v>
+      </c>
+      <c r="E42">
+        <v>94</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3621,7 +3699,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4672,6 +4750,32 @@
         <v>564.9327564908368</v>
       </c>
     </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B42">
+        <v>3301.159024236644</v>
+      </c>
+      <c r="C42">
+        <v>82.77037693733121</v>
+      </c>
+      <c r="D42">
+        <v>141.7282950645424</v>
+      </c>
+      <c r="E42">
+        <v>218.8312483759346</v>
+      </c>
+      <c r="F42">
+        <v>17.1625852894676</v>
+      </c>
+      <c r="G42">
+        <v>516.9540241769058</v>
+      </c>
+      <c r="H42">
+        <v>472.3815185336223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4679,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5646,6 +5750,32 @@
         <v>521.840900097958</v>
       </c>
     </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B42">
+        <v>1845.686474961026</v>
+      </c>
+      <c r="C42">
+        <v>44.14420103324331</v>
+      </c>
+      <c r="D42">
+        <v>98.95672030399302</v>
+      </c>
+      <c r="E42">
+        <v>111.2780177911668</v>
+      </c>
+      <c r="F42">
+        <v>96.11047762101857</v>
+      </c>
+      <c r="G42">
+        <v>118.8994255606883</v>
+      </c>
+      <c r="H42">
+        <v>484.8204049150721</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
